--- a/excel/0123法人登録.xlsx
+++ b/excel/0123法人登録.xlsx
@@ -176,31 +176,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>50</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="4800600" cy="3619500"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
